--- a/biology/Botanique/Louis_Laurent_(paléobotaniste)/Louis_Laurent_(paléobotaniste).xlsx
+++ b/biology/Botanique/Louis_Laurent_(paléobotaniste)/Louis_Laurent_(paléobotaniste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Louis_Laurent_(pal%C3%A9obotaniste)</t>
+          <t>Louis_Laurent_(paléobotaniste)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Laurent, (né le 13 décembre 1873 à Marseille-22 janvier 1946 (à 72 ans)), est un paléobotaniste, un docteur ès sciences et un professeur français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Louis_Laurent_(pal%C3%A9obotaniste)</t>
+          <t>Louis_Laurent_(paléobotaniste)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Aimé Alexandre Laurent est né à Marseille le 13 décembre 1873. Il est décédé le 22 janvier 1946 (à 72 ans).
 Il est élu membre de l'académie de Marseille en 1909.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Louis_Laurent_(pal%C3%A9obotaniste)</t>
+          <t>Louis_Laurent_(paléobotaniste)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> : document utilisé comme source pour la rédaction de cet article.
 Louis Laurent, « Flore fossile des Schistes de Menat. », Annales du Museum d'Histoire Naturelle de Marseille, Tome XIV,‎ 1912.
